--- a/docs/CDM-manual/tables/variable_summary.xlsx
+++ b/docs/CDM-manual/tables/variable_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/Matt Hipsey/CDM/docs/CDM-manual/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/00042030/AED Dropbox/Matt Hipsey/CDM/docs/CDM-manual/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B3CA3-269A-AB4F-A706-1EFCD0FD1D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8550E3-359B-6E40-876E-C205055E4174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="4720" windowWidth="28040" windowHeight="17440" xr2:uid="{72A9C7FC-E121-8141-9A45-E5DBAE31752A}"/>
+    <workbookView xWindow="10360" yWindow="3280" windowWidth="28040" windowHeight="17440" xr2:uid="{72A9C7FC-E121-8141-9A45-E5DBAE31752A}"/>
   </bookViews>
   <sheets>
     <sheet name="vars" sheetId="2" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
   <si>
     <t>Physical variables</t>
   </si>
@@ -246,24 +237,15 @@
     <t>Planktonic variables</t>
   </si>
   <si>
-    <t>BGA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyanobacteria </t>
   </si>
   <si>
     <t>Photosynthesis, nutrient uptake, respiration, sedimentation</t>
   </si>
   <si>
-    <t>GRN</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
-    <t>DIA</t>
-  </si>
-  <si>
     <t>Diatom</t>
   </si>
   <si>
@@ -321,9 +303,6 @@
     <t>Benthic photosynthesis, nutrient uptake, respiration &amp; sloughing</t>
   </si>
   <si>
-    <t>Ruppia HSI</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -348,9 +327,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>CDM Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -366,54 +342,12 @@
     <t>OXY_oxy</t>
   </si>
   <si>
-    <t>IPAR</t>
-  </si>
-  <si>
-    <t>Incident light, I0, is attenuated as a function of depth</t>
-  </si>
-  <si>
-    <t>IUV</t>
-  </si>
-  <si>
-    <t>hPAR</t>
-  </si>
-  <si>
-    <t>hUV</t>
-  </si>
-  <si>
-    <t>mmol Si m-3</t>
-  </si>
-  <si>
-    <t>mmol P m-3</t>
-  </si>
-  <si>
-    <t>NH4+</t>
-  </si>
-  <si>
-    <t>mmol N m-3</t>
-  </si>
-  <si>
-    <t>NO3-</t>
-  </si>
-  <si>
-    <t>mmol C m-3</t>
-  </si>
-  <si>
     <t>g SS m-3</t>
   </si>
   <si>
-    <t>mmol C m-2</t>
-  </si>
-  <si>
-    <t>ULVABEN</t>
-  </si>
-  <si>
     <t>^{\circ}C</t>
   </si>
   <si>
-    <t>uS/cm</t>
-  </si>
-  <si>
     <t>W /m^2</t>
   </si>
   <si>
@@ -433,13 +367,166 @@
   </si>
   <si>
     <t>HAB_ruppia</t>
+  </si>
+  <si>
+    <t>TOT_uv</t>
+  </si>
+  <si>
+    <t>TOT_EXTC</t>
+  </si>
+  <si>
+    <t>SIL_rsi</t>
+  </si>
+  <si>
+    <t>PHS_frp</t>
+  </si>
+  <si>
+    <t>PHS_frpads</t>
+  </si>
+  <si>
+    <t>NIT_amm</t>
+  </si>
+  <si>
+    <t>NIT_nit</t>
+  </si>
+  <si>
+    <t>OGM_cpom</t>
+  </si>
+  <si>
+    <t>OGM_docr</t>
+  </si>
+  <si>
+    <t>OGM_donr</t>
+  </si>
+  <si>
+    <t>OGM_dopr</t>
+  </si>
+  <si>
+    <t>OGM_doc</t>
+  </si>
+  <si>
+    <t>OGM_don</t>
+  </si>
+  <si>
+    <t>OGM_dop</t>
+  </si>
+  <si>
+    <t>OGM_poc</t>
+  </si>
+  <si>
+    <t>OGM_pop</t>
+  </si>
+  <si>
+    <t>OGM_pon</t>
+  </si>
+  <si>
+    <t>TOT_tp</t>
+  </si>
+  <si>
+    <t>TOT_tn</t>
+  </si>
+  <si>
+    <t>TOT_tkn</t>
+  </si>
+  <si>
+    <t>PHY_bga</t>
+  </si>
+  <si>
+    <t>PHY_grn</t>
+  </si>
+  <si>
+    <t>PHY_diatom</t>
+  </si>
+  <si>
+    <t>PHY_tchla</t>
+  </si>
+  <si>
+    <t>TOT_turbidity</t>
+  </si>
+  <si>
+    <t>NCS_ss1</t>
+  </si>
+  <si>
+    <t>PHY_mpb</t>
+  </si>
+  <si>
+    <t>MAG_ulva_ben</t>
+  </si>
+  <si>
+    <t>uS /cm</t>
+  </si>
+  <si>
+    <t>mmol Si/m^3</t>
+  </si>
+  <si>
+    <t>mmol P/m^3</t>
+  </si>
+  <si>
+    <t>mmol N/m^3</t>
+  </si>
+  <si>
+    <t>mmol C/m^3</t>
+  </si>
+  <si>
+    <t>mmol C/m^4</t>
+  </si>
+  <si>
+    <t>mmol P/m^4</t>
+  </si>
+  <si>
+    <t>\mu g/ L</t>
+  </si>
+  <si>
+    <t>mmol C /m^2</t>
+  </si>
+  <si>
+    <t>NH_4^+</t>
+  </si>
+  <si>
+    <t>NO_3^-</t>
+  </si>
+  <si>
+    <t>PHY_{i=1}</t>
+  </si>
+  <si>
+    <t>PHY_{i=2}</t>
+  </si>
+  <si>
+    <t>PHY_{i=3}</t>
+  </si>
+  <si>
+    <t>Ruppia\:HSI</t>
+  </si>
+  <si>
+    <t>OGM_cdom</t>
+  </si>
+  <si>
+    <t>ULVA_{BEN}</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>I_{PAR}</t>
+  </si>
+  <si>
+    <t>I_{UV}</t>
+  </si>
+  <si>
+    <t>\eta_{PAR}</t>
+  </si>
+  <si>
+    <t>\eta_{UV}</t>
+  </si>
+  <si>
+    <t>Incident light, $I_0$, is attenuated as a function of depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +538,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,7 +889,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,49 +898,49 @@
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -858,13 +951,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -881,19 +974,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -904,65 +994,65 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
         <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -973,19 +1063,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -996,19 +1083,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1019,19 +1106,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1042,19 +1129,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -1065,19 +1152,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -1088,19 +1175,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1111,19 +1198,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -1134,19 +1221,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -1157,19 +1244,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
@@ -1180,19 +1267,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -1203,19 +1290,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
@@ -1226,19 +1313,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -1249,19 +1336,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -1272,19 +1359,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
@@ -1295,19 +1382,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
@@ -1318,19 +1405,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -1341,19 +1428,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
@@ -1364,19 +1451,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
@@ -1387,19 +1474,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
@@ -1410,19 +1497,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
         <v>64</v>
@@ -1433,19 +1520,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -1456,235 +1543,236 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>71</v>
-      </c>
-      <c r="G29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>